--- a/Örnek 25 - Sabitleme.xlsx
+++ b/Örnek 25 - Sabitleme.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{804710C0-D5FE-4BC2-AB51-9BFD03ED8DC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1761AF73-80AA-40C4-B8F3-43389881904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SABİTLEME OPERATÖRÜ</t>
   </si>
@@ -52,12 +55,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -444,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -496,11 +505,16 @@
       <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <f>D6+$C$6</f>
+        <v>13</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>20215070019</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
@@ -509,11 +523,16 @@
       <c r="D7" s="4">
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E14" si="0">D7+$C$6</f>
+        <v>23</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
@@ -522,11 +541,16 @@
       <c r="D8" s="4">
         <v>50</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -535,42 +559,60 @@
       <c r="D9" s="4">
         <v>45</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C10" s="5"/>
       <c r="D10" s="4">
         <v>50</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C11" s="5"/>
       <c r="D11" s="4">
         <v>52</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C12" s="5"/>
       <c r="D12" s="4">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C13" s="5"/>
       <c r="D13" s="4">
         <v>50</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="C14" s="5"/>
       <c r="D14" s="4">
         <v>57</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -588,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -602,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
